--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp7-Acvr1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.436778333333334</v>
+        <v>10.92359866666667</v>
       </c>
       <c r="N2">
-        <v>16.310335</v>
+        <v>32.770796</v>
       </c>
       <c r="O2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="P2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="Q2">
-        <v>0.3984252388611111</v>
+        <v>0.800517722288889</v>
       </c>
       <c r="R2">
-        <v>3.58582714975</v>
+        <v>7.204659500600001</v>
       </c>
       <c r="S2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
       <c r="T2">
-        <v>0.121853993972124</v>
+        <v>0.2236009040380497</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>62.452076</v>
       </c>
       <c r="O3">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="P3">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="Q3">
         <v>1.525565434288889</v>
@@ -635,10 +635,10 @@
         <v>13.7300889086</v>
       </c>
       <c r="S3">
-        <v>0.4665774732677552</v>
+        <v>0.4261214970992155</v>
       </c>
       <c r="T3">
-        <v>0.4665774732677551</v>
+        <v>0.4261214970992155</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.23122433333334</v>
+        <v>13.06524766666667</v>
       </c>
       <c r="N4">
-        <v>39.693673</v>
+        <v>39.195743</v>
       </c>
       <c r="O4">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="P4">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="Q4">
-        <v>0.9696282232277779</v>
+        <v>0.9574648998388887</v>
       </c>
       <c r="R4">
-        <v>8.72665400905</v>
+        <v>8.61718409855</v>
       </c>
       <c r="S4">
-        <v>0.2965501683732102</v>
+        <v>0.2674394472823625</v>
       </c>
       <c r="T4">
-        <v>0.2965501683732101</v>
+        <v>0.2674394472823625</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.131792</v>
+        <v>4.046901</v>
       </c>
       <c r="N5">
-        <v>15.395376</v>
+        <v>12.140703</v>
       </c>
       <c r="O5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="P5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="Q5">
-        <v>0.3760748237333333</v>
+        <v>0.29657039495</v>
       </c>
       <c r="R5">
-        <v>3.3846734136</v>
+        <v>2.66913355455</v>
       </c>
       <c r="S5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
       <c r="T5">
-        <v>0.1150183643869107</v>
+        <v>0.0828381515803724</v>
       </c>
     </row>
   </sheetData>
